--- a/biology/Histoire de la zoologie et de la botanique/Étienne_Serres/Étienne_Serres.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Étienne_Serres/Étienne_Serres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Serres</t>
+          <t>Étienne_Serres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étienne-Renaud-Augustin Serres[1] est un médecin, anatomiste et embryologiste français né à Clairac (Lot-et-Garonne) (à l'époque « Clayrac » ou "Clérac"[1]) le 12 septembre 1786 et mort à Paris le 22 janvier 1868. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étienne-Renaud-Augustin Serres est un médecin, anatomiste et embryologiste français né à Clairac (Lot-et-Garonne) (à l'époque « Clayrac » ou "Clérac") le 12 septembre 1786 et mort à Paris le 22 janvier 1868. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Serres</t>
+          <t>Étienne_Serres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Muséum national d'histoire naturelle il occupa la chaire d'Anthropologie de 1839 à 1855 et la chaire d'Anatomie comparée de 1855 à sa mort (Paul Gervais lui succéda dans cette dernière). 
 Il a été membre de l'Académie nationale de médecine et de l'Académie des sciences, 
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Serres</t>
+          <t>Étienne_Serres</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>avec Marc-Antoine Petit, Traité de la fièvre entéro-mésentérique, observée, reconnue et signalée publiquement à l'Hôtel-Dieu de Paris, dans les années 1811, 1812 et 1813, chez Hacquart, Paris, 1813 (lire en ligne)
  Des lois de l’ostéogénie, 1815
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Serres</t>
+          <t>Étienne_Serres</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>chevalier de la Légion d'honneur,
 officier de la Légion d'honneur,
